--- a/v5/v5_regression.xlsx
+++ b/v5/v5_regression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp\Desktop\master\results\analysis_data\standard_v5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578ED4FB-9D77-46E8-A995-FF0BA8763D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E2A57-5B13-4CA5-BCB9-0F961739A182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="270">
   <si>
     <t>dataname:task_type</t>
   </si>
@@ -185,1050 +185,659 @@
   </si>
   <si>
     <t>-3.93%</t>
-  </si>
-  <si>
-    <t>4.83</t>
   </si>
   <si>
     <t>apply_attribute_v5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>apply_attribute_v4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.24%</t>
-  </si>
-  <si>
-    <t>15.12%</t>
-  </si>
-  <si>
-    <t>-43.36%</t>
-  </si>
-  <si>
-    <t>-3.64%</t>
-  </si>
-  <si>
-    <t>4.38%</t>
-  </si>
-  <si>
-    <t>-8.34%</t>
-  </si>
-  <si>
-    <t>-8.87%</t>
-  </si>
-  <si>
-    <t>-9.07%</t>
-  </si>
-  <si>
-    <t>-3.85%</t>
-  </si>
-  <si>
-    <t>-2.47%</t>
-  </si>
-  <si>
-    <t>7.72%</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>-0.30%</t>
-  </si>
-  <si>
-    <t>-3.10%</t>
-  </si>
-  <si>
-    <t>-5.98%</t>
-  </si>
-  <si>
-    <t>12.38%</t>
-  </si>
-  <si>
-    <t>-9.37%</t>
-  </si>
-  <si>
-    <t>-24.90%</t>
-  </si>
-  <si>
-    <t>-8.74%</t>
-  </si>
-  <si>
-    <t>-5.14%</t>
-  </si>
-  <si>
     <t>2.0597,(0.00%)</t>
   </si>
   <si>
     <t>2.0534,(-0.30%)</t>
   </si>
   <si>
-    <t>2.0498,(-0.48%)</t>
-  </si>
-  <si>
     <t>2.0217,(0.00%)</t>
   </si>
   <si>
     <t>2.0157,(-0.30%)</t>
   </si>
   <si>
-    <t>2.0184,(-0.16%)</t>
-  </si>
-  <si>
     <t>2.0500,(0.00%)</t>
   </si>
   <si>
     <t>2.0313,(-0.92%)</t>
   </si>
   <si>
-    <t>2.0525,(0.12%)</t>
-  </si>
-  <si>
     <t>2.0331,(0.00%)</t>
   </si>
   <si>
     <t>2.0258,(-0.36%)</t>
   </si>
   <si>
-    <t>2.0198,(-0.66%)</t>
-  </si>
-  <si>
     <t>2.0435,(0.00%)</t>
   </si>
   <si>
     <t>2.0591,(0.77%)</t>
   </si>
   <si>
-    <t>2.0838,(1.98%)</t>
-  </si>
-  <si>
     <t>2.3234,(0.00%)</t>
   </si>
   <si>
     <t>2.1357,(-8.08%)</t>
   </si>
   <si>
-    <t>2.2718,(-2.22%)</t>
-  </si>
-  <si>
     <t>1.5585,(0.00%)</t>
   </si>
   <si>
     <t>1.5125,(-2.95%)</t>
   </si>
   <si>
-    <t>1.7248,(10.67%)</t>
-  </si>
-  <si>
     <t>2.1048,(0.00%)</t>
   </si>
   <si>
     <t>2.0334,(-3.39%)</t>
   </si>
   <si>
-    <t>2.0958,(-0.43%)</t>
-  </si>
-  <si>
     <t>1.3398,(0.00%)</t>
   </si>
   <si>
     <t>1.3115,(-2.11%)</t>
   </si>
   <si>
-    <t>1.4389,(7.40%)</t>
-  </si>
-  <si>
     <t>1.9374,(0.00%)</t>
   </si>
   <si>
     <t>1.8793,(-3.00%)</t>
   </si>
   <si>
-    <t>3.7130,(91.65%)</t>
-  </si>
-  <si>
     <t>1.9348,(0.00%)</t>
   </si>
   <si>
     <t>1.8191,(-5.98%)</t>
   </si>
   <si>
-    <t>1.9614,(1.37%)</t>
-  </si>
-  <si>
     <t>5.0247,(0.00%)</t>
   </si>
   <si>
     <t>3.9704,(-20.98%)</t>
   </si>
   <si>
-    <t>4.0239,(-19.92%)</t>
-  </si>
-  <si>
     <t>1293.6870,(0.00%)</t>
   </si>
   <si>
-    <t>1636.2017,(26.48%)</t>
-  </si>
-  <si>
-    <t>998.3905,(-22.83%)</t>
-  </si>
-  <si>
     <t>3128.1634,(0.00%)</t>
   </si>
   <si>
-    <t>1704.6018,(-45.51%)</t>
-  </si>
-  <si>
-    <t>5997.1087,(91.71%)</t>
-  </si>
-  <si>
     <t>5413.8274,(0.00%)</t>
   </si>
   <si>
-    <t>20969.1365,(287.33%)</t>
-  </si>
-  <si>
-    <t>1035.1159,(-80.88%)</t>
-  </si>
-  <si>
     <t>5423.9060,(0.00%)</t>
   </si>
   <si>
-    <t>3733.5895,(-31.16%)</t>
-  </si>
-  <si>
-    <t>765.8305,(-85.88%)</t>
-  </si>
-  <si>
     <t>6530.8991,(0.00%)</t>
   </si>
   <si>
-    <t>2411.7103,(-63.07%)</t>
-  </si>
-  <si>
-    <t>1744.2121,(-73.29%)</t>
-  </si>
-  <si>
     <t>15983.1329,(0.00%)</t>
   </si>
   <si>
-    <t>7928.7627,(-50.39%)</t>
-  </si>
-  <si>
-    <t>1762.0350,(-88.98%)</t>
-  </si>
-  <si>
     <t>0.4787,(0.00%)</t>
   </si>
   <si>
     <t>0.4793,(0.12%)</t>
   </si>
   <si>
-    <t>0.4908,(2.52%)</t>
-  </si>
-  <si>
     <t>0.4851,(0.00%)</t>
   </si>
   <si>
     <t>0.4803,(-0.98%)</t>
   </si>
   <si>
-    <t>0.4854,(0.07%)</t>
-  </si>
-  <si>
     <t>0.4640,(0.00%)</t>
   </si>
   <si>
     <t>0.4635,(-0.11%)</t>
   </si>
   <si>
-    <t>0.4702,(1.33%)</t>
-  </si>
-  <si>
     <t>0.5004,(0.00%)</t>
   </si>
   <si>
     <t>0.4999,(-0.10%)</t>
   </si>
   <si>
-    <t>0.5031,(0.54%)</t>
-  </si>
-  <si>
     <t>0.5186,(0.00%)</t>
   </si>
   <si>
     <t>0.5155,(-0.59%)</t>
   </si>
   <si>
-    <t>0.5026,(-3.08%)</t>
-  </si>
-  <si>
     <t>0.8749,(0.00%)</t>
   </si>
   <si>
     <t>0.7273,(-16.87%)</t>
   </si>
   <si>
-    <t>0.6719,(-23.20%)</t>
-  </si>
-  <si>
     <t>0.1505,(0.00%)</t>
   </si>
   <si>
     <t>0.1558,(3.54%)</t>
   </si>
   <si>
-    <t>0.1449,(-3.75%)</t>
-  </si>
-  <si>
     <t>0.1544,(0.00%)</t>
   </si>
   <si>
     <t>0.1562,(1.16%)</t>
   </si>
   <si>
-    <t>0.1693,(9.64%)</t>
-  </si>
-  <si>
     <t>0.1509,(0.00%)</t>
   </si>
   <si>
     <t>0.1491,(-1.17%)</t>
   </si>
   <si>
-    <t>0.1674,(10.92%)</t>
-  </si>
-  <si>
     <t>0.1517,(0.00%)</t>
   </si>
   <si>
     <t>0.1520,(0.18%)</t>
   </si>
   <si>
-    <t>0.1617,(6.57%)</t>
-  </si>
-  <si>
     <t>0.1487,(0.00%)</t>
   </si>
   <si>
     <t>0.1483,(-0.21%)</t>
   </si>
   <si>
-    <t>0.1596,(7.35%)</t>
-  </si>
-  <si>
     <t>0.1829,(0.00%)</t>
   </si>
   <si>
     <t>0.1726,(-5.63%)</t>
   </si>
   <si>
-    <t>0.1748,(-4.43%)</t>
-  </si>
-  <si>
     <t>3.8322,(0.00%)</t>
   </si>
   <si>
     <t>3.8474,(0.40%)</t>
   </si>
   <si>
-    <t>3.7806,(-1.35%)</t>
-  </si>
-  <si>
     <t>3.7631,(0.00%)</t>
   </si>
   <si>
     <t>3.7324,(-0.82%)</t>
   </si>
   <si>
-    <t>3.8981,(3.59%)</t>
-  </si>
-  <si>
     <t>3.7039,(0.00%)</t>
   </si>
   <si>
     <t>3.6686,(-0.95%)</t>
   </si>
   <si>
-    <t>3.5908,(-3.05%)</t>
-  </si>
-  <si>
     <t>3.9151,(0.00%)</t>
   </si>
   <si>
     <t>3.9148,(-0.01%)</t>
   </si>
   <si>
-    <t>3.8115,(-2.65%)</t>
-  </si>
-  <si>
     <t>3.9463,(0.00%)</t>
   </si>
   <si>
     <t>3.9028,(-1.10%)</t>
   </si>
   <si>
-    <t>3.8669,(-2.01%)</t>
-  </si>
-  <si>
     <t>11.8230,(0.00%)</t>
   </si>
   <si>
     <t>7.4167,(-37.27%)</t>
   </si>
   <si>
-    <t>6.5518,(-44.58%)</t>
-  </si>
-  <si>
     <t>4.8096,(0.00%)</t>
   </si>
   <si>
     <t>4.7099,(-2.07%)</t>
   </si>
   <si>
-    <t>4.4822,(-6.81%)</t>
-  </si>
-  <si>
     <t>5.8366,(0.00%)</t>
   </si>
   <si>
     <t>5.5265,(-5.31%)</t>
   </si>
   <si>
-    <t>5.6286,(-3.56%)</t>
-  </si>
-  <si>
     <t>5.1042,(0.00%)</t>
   </si>
   <si>
     <t>5.1022,(-0.04%)</t>
   </si>
   <si>
-    <t>4.5502,(-10.86%)</t>
-  </si>
-  <si>
     <t>5.4970,(0.00%)</t>
   </si>
   <si>
     <t>5.4674,(-0.54%)</t>
   </si>
   <si>
-    <t>5.3684,(-2.34%)</t>
-  </si>
-  <si>
     <t>4.9846,(0.00%)</t>
   </si>
   <si>
     <t>4.9140,(-1.42%)</t>
   </si>
   <si>
-    <t>5.2468,(5.26%)</t>
-  </si>
-  <si>
     <t>11.0116,(0.00%)</t>
   </si>
   <si>
     <t>9.6462,(-12.40%)</t>
   </si>
   <si>
-    <t>7.1667,(-34.92%)</t>
-  </si>
-  <si>
     <t>565.4896,(0.00%)</t>
   </si>
   <si>
     <t>568.9367,(0.61%)</t>
   </si>
   <si>
-    <t>569.6107,(0.73%)</t>
-  </si>
-  <si>
     <t>604.1518,(0.00%)</t>
   </si>
   <si>
     <t>594.8473,(-1.54%)</t>
   </si>
   <si>
-    <t>589.7618,(-2.38%)</t>
-  </si>
-  <si>
     <t>549.4801,(0.00%)</t>
   </si>
   <si>
     <t>541.8899,(-1.38%)</t>
   </si>
   <si>
-    <t>549.4255,(-0.01%)</t>
-  </si>
-  <si>
     <t>561.6000,(0.00%)</t>
   </si>
   <si>
     <t>561.7710,(0.03%)</t>
   </si>
   <si>
-    <t>585.0276,(4.17%)</t>
-  </si>
-  <si>
     <t>605.0028,(0.00%)</t>
   </si>
   <si>
     <t>617.0359,(1.99%)</t>
   </si>
   <si>
-    <t>597.0834,(-1.31%)</t>
-  </si>
-  <si>
     <t>1523.5922,(0.00%)</t>
   </si>
   <si>
     <t>758.0215,(-50.25%)</t>
   </si>
   <si>
-    <t>675.8216,(-55.64%)</t>
-  </si>
-  <si>
     <t>0.0019,(0.00%)</t>
   </si>
   <si>
     <t>0.0019,(-0.71%)</t>
   </si>
   <si>
-    <t>0.0020,(3.30%)</t>
-  </si>
-  <si>
     <t>0.0019,(-0.42%)</t>
   </si>
   <si>
-    <t>0.0020,(1.50%)</t>
-  </si>
-  <si>
     <t>0.0019,(-1.11%)</t>
   </si>
   <si>
-    <t>0.0019,(-0.49%)</t>
-  </si>
-  <si>
     <t>0.0020,(0.00%)</t>
   </si>
   <si>
     <t>0.0020,(-0.64%)</t>
   </si>
   <si>
-    <t>0.0020,(0.12%)</t>
-  </si>
-  <si>
     <t>0.0021,(0.00%)</t>
   </si>
   <si>
     <t>0.0020,(-1.46%)</t>
   </si>
   <si>
-    <t>0.0020,(-1.19%)</t>
-  </si>
-  <si>
     <t>0.0030,(0.00%)</t>
   </si>
   <si>
     <t>0.0026,(-11.28%)</t>
   </si>
   <si>
-    <t>0.0022,(-26.36%)</t>
-  </si>
-  <si>
     <t>31039.7870,(0.00%)</t>
   </si>
   <si>
     <t>31439.8839,(1.29%)</t>
   </si>
   <si>
-    <t>31585.5164,(1.76%)</t>
-  </si>
-  <si>
     <t>31126.6423,(0.00%)</t>
   </si>
   <si>
     <t>31418.6438,(0.94%)</t>
   </si>
   <si>
-    <t>30919.8467,(-0.66%)</t>
-  </si>
-  <si>
     <t>30012.1929,(0.00%)</t>
   </si>
   <si>
     <t>30236.0053,(0.75%)</t>
   </si>
   <si>
-    <t>30177.7931,(0.55%)</t>
-  </si>
-  <si>
     <t>31529.0872,(0.00%)</t>
   </si>
   <si>
     <t>31340.4078,(-0.60%)</t>
   </si>
   <si>
-    <t>32314.6937,(2.49%)</t>
-  </si>
-  <si>
     <t>32094.2225,(0.00%)</t>
   </si>
   <si>
     <t>32105.9789,(0.04%)</t>
   </si>
   <si>
-    <t>31984.5271,(-0.34%)</t>
-  </si>
-  <si>
     <t>42559.8496,(0.00%)</t>
   </si>
   <si>
     <t>40631.4677,(-4.53%)</t>
   </si>
   <si>
-    <t>34642.5973,(-18.60%)</t>
-  </si>
-  <si>
     <t>122265.4221,(0.00%)</t>
   </si>
   <si>
     <t>120989.2703,(-1.04%)</t>
   </si>
   <si>
-    <t>135435.7588,(10.77%)</t>
-  </si>
-  <si>
     <t>122534.5506,(0.00%)</t>
   </si>
   <si>
     <t>128917.6401,(5.21%)</t>
   </si>
   <si>
-    <t>147253.6645,(20.17%)</t>
-  </si>
-  <si>
     <t>124223.6029,(0.00%)</t>
   </si>
   <si>
     <t>118717.3249,(-4.43%)</t>
   </si>
   <si>
-    <t>133228.1422,(7.25%)</t>
-  </si>
-  <si>
     <t>125339.7829,(0.00%)</t>
   </si>
   <si>
     <t>130293.0881,(3.95%)</t>
   </si>
   <si>
-    <t>142801.6074,(13.93%)</t>
-  </si>
-  <si>
     <t>128126.7357,(0.00%)</t>
   </si>
   <si>
     <t>135970.7700,(6.12%)</t>
   </si>
   <si>
-    <t>137894.4569,(7.62%)</t>
-  </si>
-  <si>
     <t>183995.0293,(0.00%)</t>
   </si>
   <si>
     <t>174309.3058,(-5.26%)</t>
   </si>
   <si>
-    <t>159322.9108,(-13.41%)</t>
-  </si>
-  <si>
     <t>12853.8276,(0.00%)</t>
   </si>
   <si>
     <t>12886.0999,(0.25%)</t>
   </si>
   <si>
-    <t>12864.5980,(0.08%)</t>
-  </si>
-  <si>
     <t>12943.8797,(0.00%)</t>
   </si>
   <si>
     <t>12961.1196,(0.13%)</t>
   </si>
   <si>
-    <t>12862.6437,(-0.63%)</t>
-  </si>
-  <si>
     <t>12859.5735,(0.00%)</t>
   </si>
   <si>
     <t>12875.2675,(0.12%)</t>
   </si>
   <si>
-    <t>12838.1723,(-0.17%)</t>
-  </si>
-  <si>
     <t>12869.5081,(0.00%)</t>
   </si>
   <si>
     <t>12873.7375,(0.03%)</t>
   </si>
   <si>
-    <t>12845.8900,(-0.18%)</t>
-  </si>
-  <si>
     <t>12926.5858,(0.00%)</t>
   </si>
   <si>
     <t>12919.9711,(-0.05%)</t>
   </si>
   <si>
-    <t>12847.9117,(-0.61%)</t>
-  </si>
-  <si>
     <t>12907.5190,(0.00%)</t>
   </si>
   <si>
     <t>12907.2436,(-0.00%)</t>
   </si>
   <si>
-    <t>12866.1455,(-0.32%)</t>
-  </si>
-  <si>
     <t>3.8212,(0.00%)</t>
   </si>
   <si>
     <t>3.6989,(-3.20%)</t>
   </si>
   <si>
-    <t>3.7212,(-2.62%)</t>
-  </si>
-  <si>
     <t>3.6868,(0.00%)</t>
   </si>
   <si>
     <t>3.6866,(-0.01%)</t>
   </si>
   <si>
-    <t>3.5849,(-2.77%)</t>
-  </si>
-  <si>
     <t>3.6373,(0.00%)</t>
   </si>
   <si>
     <t>3.6171,(-0.55%)</t>
   </si>
   <si>
-    <t>3.6086,(-0.79%)</t>
-  </si>
-  <si>
     <t>3.4782,(0.00%)</t>
   </si>
   <si>
     <t>3.4712,(-0.20%)</t>
   </si>
   <si>
-    <t>3.5254,(1.36%)</t>
-  </si>
-  <si>
     <t>3.5745,(0.00%)</t>
   </si>
   <si>
     <t>3.5420,(-0.91%)</t>
   </si>
   <si>
-    <t>3.5273,(-1.32%)</t>
-  </si>
-  <si>
     <t>4.4640,(0.00%)</t>
   </si>
   <si>
     <t>4.0756,(-8.70%)</t>
   </si>
   <si>
-    <t>3.9085,(-12.44%)</t>
-  </si>
-  <si>
     <t>6.2986,(0.00%)</t>
   </si>
   <si>
     <t>5.7431,(-8.82%)</t>
   </si>
   <si>
-    <t>5.3150,(-15.62%)</t>
-  </si>
-  <si>
     <t>8.8105,(0.00%)</t>
   </si>
   <si>
     <t>8.8251,(0.17%)</t>
   </si>
   <si>
-    <t>10.1751,(15.49%)</t>
-  </si>
-  <si>
     <t>2.8089,(0.00%)</t>
   </si>
   <si>
     <t>2.6309,(-6.34%)</t>
   </si>
   <si>
-    <t>2.8985,(3.19%)</t>
-  </si>
-  <si>
     <t>9.9422,(0.00%)</t>
   </si>
   <si>
     <t>9.8673,(-0.75%)</t>
   </si>
   <si>
-    <t>10.3774,(4.38%)</t>
-  </si>
-  <si>
     <t>10.5051,(0.00%)</t>
   </si>
   <si>
     <t>10.1623,(-3.26%)</t>
   </si>
   <si>
-    <t>10.0374,(-4.45%)</t>
-  </si>
-  <si>
     <t>16.7229,(0.00%)</t>
   </si>
   <si>
     <t>10.9134,(-34.74%)</t>
   </si>
   <si>
-    <t>10.2283,(-38.84%)</t>
-  </si>
-  <si>
     <t>1.2276,(0.00%)</t>
   </si>
   <si>
     <t>1.2526,(2.03%)</t>
   </si>
   <si>
-    <t>1.3302,(8.36%)</t>
-  </si>
-  <si>
     <t>1.2339,(0.00%)</t>
   </si>
   <si>
     <t>1.1988,(-2.84%)</t>
   </si>
   <si>
-    <t>1.4394,(16.66%)</t>
-  </si>
-  <si>
     <t>1.2759,(0.00%)</t>
   </si>
   <si>
     <t>1.3035,(2.16%)</t>
   </si>
   <si>
-    <t>1.4067,(10.25%)</t>
-  </si>
-  <si>
     <t>1.1722,(0.00%)</t>
   </si>
   <si>
     <t>1.2001,(2.38%)</t>
   </si>
   <si>
-    <t>1.3801,(17.74%)</t>
-  </si>
-  <si>
     <t>1.2159,(0.00%)</t>
   </si>
   <si>
     <t>1.2481,(2.65%)</t>
   </si>
   <si>
-    <t>1.3792,(13.43%)</t>
-  </si>
-  <si>
     <t>1.3518,(0.00%)</t>
   </si>
   <si>
     <t>1.3230,(-2.13%)</t>
   </si>
   <si>
-    <t>1.4581,(7.86%)</t>
-  </si>
-  <si>
     <t>0.8558,(0.00%)</t>
   </si>
   <si>
     <t>0.8725,(1.95%)</t>
   </si>
   <si>
-    <t>0.8233,(-3.80%)</t>
-  </si>
-  <si>
     <t>1.1790,(0.00%)</t>
   </si>
   <si>
     <t>0.9038,(-23.34%)</t>
   </si>
   <si>
-    <t>0.8676,(-26.41%)</t>
-  </si>
-  <si>
     <t>0.8239,(0.00%)</t>
   </si>
   <si>
     <t>0.8495,(3.11%)</t>
   </si>
   <si>
-    <t>0.8499,(3.16%)</t>
-  </si>
-  <si>
     <t>0.8774,(0.00%)</t>
   </si>
   <si>
     <t>0.8587,(-2.13%)</t>
   </si>
   <si>
-    <t>0.8280,(-5.64%)</t>
-  </si>
-  <si>
     <t>0.8808,(0.00%)</t>
   </si>
   <si>
     <t>0.8547,(-2.96%)</t>
   </si>
   <si>
-    <t>0.8246,(-6.38%)</t>
-  </si>
-  <si>
     <t>0.9674,(0.00%)</t>
   </si>
   <si>
     <t>0.8861,(-8.40%)</t>
   </si>
   <si>
-    <t>0.8017,(-17.13%)</t>
-  </si>
-  <si>
     <t>3.7701,(0.00%)</t>
   </si>
   <si>
     <t>2.1894,(-41.93%)</t>
   </si>
   <si>
-    <t>1.7628,(-53.24%)</t>
-  </si>
-  <si>
     <t>4.4180,(0.00%)</t>
   </si>
   <si>
     <t>2.3533,(-46.73%)</t>
   </si>
   <si>
-    <t>5.2430,(18.67%)</t>
-  </si>
-  <si>
     <t>1.3788,(0.00%)</t>
   </si>
   <si>
     <t>1.2205,(-11.49%)</t>
   </si>
   <si>
-    <t>1.5663,(13.60%)</t>
-  </si>
-  <si>
     <t>4.6760,(0.00%)</t>
   </si>
   <si>
     <t>2.9430,(-37.06%)</t>
   </si>
   <si>
-    <t>2.9539,(-36.83%)</t>
-  </si>
-  <si>
     <t>4.4040,(0.00%)</t>
   </si>
   <si>
     <t>2.4209,(-45.03%)</t>
   </si>
   <si>
-    <t>2.3224,(-47.27%)</t>
-  </si>
-  <si>
     <t>11.7434,(0.00%)</t>
   </si>
   <si>
     <t>7.2334,(-38.40%)</t>
   </si>
   <si>
-    <t>6.5363,(-44.34%)</t>
-  </si>
-  <si>
     <t>11.0102,(0.00%)</t>
   </si>
   <si>
     <t>11.0126,(0.02%)</t>
   </si>
   <si>
-    <t>11.2752,(2.41%)</t>
-  </si>
-  <si>
     <t>11.0657,(0.00%)</t>
   </si>
   <si>
     <t>10.9672,(-0.89%)</t>
   </si>
   <si>
-    <t>11.1991,(1.21%)</t>
-  </si>
-  <si>
     <t>10.9848,(0.00%)</t>
   </si>
   <si>
     <t>10.9995,(0.13%)</t>
   </si>
   <si>
-    <t>10.9196,(-0.59%)</t>
-  </si>
-  <si>
     <t>10.2152,(0.00%)</t>
   </si>
   <si>
     <t>10.2038,(-0.11%)</t>
   </si>
   <si>
-    <t>10.5027,(2.81%)</t>
-  </si>
-  <si>
     <t>11.1937,(0.00%)</t>
   </si>
   <si>
     <t>10.9396,(-2.27%)</t>
   </si>
   <si>
-    <t>10.7688,(-3.80%)</t>
-  </si>
-  <si>
     <t>26.4685,(0.00%)</t>
   </si>
   <si>
     <t>16.8938,(-36.17%)</t>
   </si>
   <si>
-    <t>12.0506,(-54.47%)</t>
+    <t>895.8303,(-13.85%:3)</t>
+  </si>
+  <si>
+    <t>1432.1433,(29.21%:10)</t>
+  </si>
+  <si>
+    <t>2684.7697,(117.24%:15)</t>
+  </si>
+  <si>
+    <t>1383.0853,(30.86%:12)</t>
+  </si>
+  <si>
+    <t>1239.9727,(-27.04%:14)</t>
+  </si>
+  <si>
+    <t>1593.4921,(-9.80%:1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,6 +872,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1306,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1316,18 +937,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1629,17 +1246,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,11 +1270,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1667,14 +1282,12 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1684,14 +1297,12 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>83</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1701,14 +1312,12 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>86</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1718,14 +1327,12 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>89</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1735,14 +1342,12 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>92</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1752,20 +1357,17 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1779,9 +1381,6 @@
       </c>
       <c r="D9" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,14 +1391,12 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>98</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1809,14 +1406,12 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>101</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1826,14 +1421,12 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1843,14 +1436,12 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>107</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1860,14 +1451,12 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>110</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1877,20 +1466,17 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1904,9 +1490,6 @@
       </c>
       <c r="D17" t="s">
         <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,14 +1500,12 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>116</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1934,14 +1515,12 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>119</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1951,14 +1530,12 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>122</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1968,14 +1545,12 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>125</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1985,14 +1560,12 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>128</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2002,20 +1575,18 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>131</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2030,9 +1601,7 @@
       <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2042,14 +1611,12 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2059,14 +1626,12 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2076,14 +1641,12 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>140</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2093,14 +1656,12 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>143</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2110,14 +1671,12 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>146</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2127,20 +1686,18 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>149</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2155,9 +1712,7 @@
       <c r="D33" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2167,14 +1722,12 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>152</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2184,14 +1737,12 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>155</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2201,14 +1752,12 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>158</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2218,14 +1767,12 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>161</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2235,14 +1782,12 @@
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>164</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2252,20 +1797,18 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>167</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2280,9 +1823,7 @@
       <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2292,14 +1833,12 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>170</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2309,14 +1848,12 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2326,14 +1863,12 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>176</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2343,14 +1878,12 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>179</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2360,14 +1893,12 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>182</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2377,20 +1908,18 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>185</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2405,9 +1934,7 @@
       <c r="D49" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -2417,14 +1944,12 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>188</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2434,14 +1959,12 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>191</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2451,14 +1974,12 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>194</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -2468,14 +1989,12 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>197</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -2485,14 +2004,12 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>200</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2502,20 +2019,18 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>203</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -2530,9 +2045,7 @@
       <c r="D57" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2542,14 +2055,12 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>206</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -2559,14 +2070,12 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>209</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -2576,14 +2085,12 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>212</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -2593,14 +2100,12 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>215</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2610,14 +2115,12 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>218</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2627,20 +2130,18 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>221</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -2655,9 +2156,7 @@
       <c r="D65" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -2667,14 +2166,12 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>224</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -2684,14 +2181,12 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>226</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -2701,14 +2196,12 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>228</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -2718,14 +2211,12 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>231</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -2735,14 +2226,12 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>234</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -2752,20 +2241,18 @@
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>237</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="7"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -2780,9 +2267,7 @@
       <c r="D73" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -2792,14 +2277,12 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>240</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -2809,14 +2292,12 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>243</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2826,14 +2307,12 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>160</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>246</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -2843,14 +2322,12 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>249</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -2860,14 +2337,12 @@
         <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>252</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -2877,20 +2352,18 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>255</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="7"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -2905,9 +2378,7 @@
       <c r="D81" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -2917,14 +2388,12 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>258</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2934,14 +2403,12 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>261</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -2951,14 +2418,12 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>264</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -2968,14 +2433,12 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>267</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -2985,14 +2448,12 @@
         <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>270</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -3002,20 +2463,18 @@
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>273</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -3030,9 +2489,7 @@
       <c r="D89" t="s">
         <v>38</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -3042,14 +2499,12 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>276</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -3059,14 +2514,12 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>277</v>
+        <v>182</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>279</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -3076,14 +2529,12 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>282</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -3093,14 +2544,12 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>285</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3110,14 +2559,12 @@
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>188</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>288</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -3127,14 +2574,12 @@
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>290</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>291</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -3149,9 +2594,7 @@
       <c r="D96" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -3166,9 +2609,7 @@
       <c r="D97" t="s">
         <v>40</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -3178,14 +2619,12 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>294</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -3195,14 +2634,12 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>297</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -3212,14 +2649,12 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>300</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -3229,14 +2664,12 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>301</v>
+        <v>198</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>303</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -3246,14 +2679,12 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>306</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -3263,20 +2694,18 @@
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>309</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="7"/>
+      <c r="E104" s="9"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -3291,9 +2720,7 @@
       <c r="D105" t="s">
         <v>42</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -3303,14 +2730,12 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>204</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>312</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -3320,14 +2745,12 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>315</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -3337,14 +2760,12 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>318</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -3354,14 +2775,12 @@
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>321</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -3371,14 +2790,12 @@
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>324</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -3388,20 +2805,18 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>214</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>327</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="7"/>
+      <c r="E112" s="9"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -3416,9 +2831,7 @@
       <c r="D113" t="s">
         <v>44</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="E113" s="9"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -3428,14 +2841,12 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>328</v>
+        <v>216</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>330</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -3445,14 +2856,12 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>333</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -3462,14 +2871,12 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>334</v>
+        <v>220</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>336</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -3479,14 +2886,12 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>339</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -3496,14 +2901,12 @@
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>342</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -3513,20 +2916,18 @@
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>345</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="7"/>
+      <c r="E120" s="9"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -3541,9 +2942,7 @@
       <c r="D121" t="s">
         <v>46</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="E121" s="9"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -3553,14 +2952,12 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>348</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -3570,14 +2967,12 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>351</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -3587,14 +2982,12 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>354</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3604,14 +2997,12 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>357</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -3621,14 +3012,12 @@
         <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>360</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -3638,20 +3027,18 @@
         <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>361</v>
+        <v>238</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>363</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="7"/>
+      <c r="E128" s="9"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -3666,9 +3053,7 @@
       <c r="D129" t="s">
         <v>48</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="E129" s="9"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -3678,14 +3063,12 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>366</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -3695,14 +3078,12 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>367</v>
+        <v>242</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>369</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E131" s="8"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -3712,14 +3093,12 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>372</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -3729,14 +3108,12 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>375</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -3746,14 +3123,12 @@
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>376</v>
+        <v>248</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>378</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E134" s="7"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -3763,14 +3138,12 @@
         <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>381</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -3785,9 +3158,7 @@
       <c r="D136" t="s">
         <v>17</v>
       </c>
-      <c r="E136" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="E136" s="9"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -3802,9 +3173,7 @@
       <c r="D137" t="s">
         <v>50</v>
       </c>
-      <c r="E137" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="E137" s="9"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -3814,14 +3183,12 @@
         <v>4</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>252</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>384</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E138" s="8"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -3831,14 +3198,12 @@
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>385</v>
+        <v>254</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>387</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -3848,14 +3213,12 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>390</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -3865,14 +3228,12 @@
         <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>391</v>
+        <v>258</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>393</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -3882,14 +3243,12 @@
         <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>394</v>
+        <v>260</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>396</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -3899,20 +3258,18 @@
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>262</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>399</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="7"/>
+      <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -3927,9 +3284,7 @@
       <c r="D145" t="s">
         <v>52</v>
       </c>
-      <c r="E145" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="E145" s="9"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -3937,7 +3292,7 @@
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="11"/>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -3951,9 +3306,6 @@
       </c>
       <c r="D147" t="s">
         <v>54</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
